--- a/biology/Botanique/Cattleya/Cattleya.xlsx
+++ b/biology/Botanique/Cattleya/Cattleya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cattleya est un genre d'orchidées originaire des forêts tropicales d'Amérique centrale et d'Amérique du Sud qui comprend une soixantaine d'espèces. Son nom vient de William Cattley qui fut le premier collectionneur qui réussit à les faire refleurir.
 Ce sont des plantes sympodiales épiphytes formant des pseudobulbes à une ou deux feuilles. Les cattleyas bifoliés ont des inflorescences en grappe alors que les cattleyas à une feuille produisent, le plus souvent, des fleurs isolées de grande taille. Les fleurs sont en règle générale très parfumées.
@@ -512,7 +524,9 @@
           <t>Espèces botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cattleya aclandiae : une ou deux fleurs vert à jaune-vert, tachetées pourpre-brun, labelle magenta.
 Cattleya aurantiaca : nombreuses fleurs orangées au printemps.
@@ -539,13 +553,7 @@
 Cattleya violacea : trois à sept fleurs rose vif marginée blanc, labelle ton plus soutenu légèrement rayé blanc jaune au centre.
 Cattleya walkeriana : une ou deux fleurs rose violet, labelle identique avec traces blanches.
 Cattleya warneri : fleurs rose pâle labelle teinté de pourpre violacé.
-Cattleya warscewiczii : fleurs rose, labelle rose foncé avec deux macules jaunes latérales.
-Hybrides de Cattleya
-Cattleya x elegans
-avec d'autres orchidées
-Laeliocattleya : Cattleya × Laelia
-Brassocattleya : Cattleya × Brassavola
-Sophrolaeliocattleya : Cattleya × Laelia × Sophronitis</t>
+Cattleya warscewiczii : fleurs rose, labelle rose foncé avec deux macules jaunes latérales.</t>
         </is>
       </c>
     </row>
@@ -570,12 +578,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Espèces botaniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hybrides de Cattleya</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cattleya x elegans</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cattleya</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cattleya</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces botaniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hybrides de Cattleya</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>avec d'autres orchidées</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Laeliocattleya : Cattleya × Laelia
+Brassocattleya : Cattleya × Brassavola
+Sophrolaeliocattleya : Cattleya × Laelia × Sophronitis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cattleya</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cattleya</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (17 sept. 2010)[1]
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (17 sept. 2010)[1]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cattleya aclandiae
 Cattleya amethystoglossa
 Cattleya araguaiensis
@@ -633,49 +725,229 @@
 Cattleya warneri
 Cattleya warscewiczii
 Cattleya sp. Schoenbrunn s.n.
-Selon ITIS      (16 déc. 2018)[2]
-Cattleya gaskelliana (N.E.Br.) B.S. Williams
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cattleya</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cattleya</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (16 déc. 2018)[2]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cattleya gaskelliana (N.E.Br.) B.S. Williams
 Cattleya harpophylla (Rchb. f.) Van den Berg
 Cattleya labiata Lindl.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cattleya</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cattleya</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cattleya</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cattleya</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Température
-En hiver, de 14 degrés la nuit à 18 degrés le jour ; en été, de 18 à 22 degrés.
-Lumière
-Les cattleyas aiment beaucoup la lumière, mais pas le soleil direct, celui-ci doit être filtré par un voilage.
-Arrosages
-Un ou deux arrosages par semaine pendant la période de végétation, puis une fois tous les dix ou quinze jours en période de repos, avec de l'eau non calcaire (eau filtrée ou eau de pluie).
-Engrais
-En pulvérisation sur les feuilles pendant la période de végétation, toutes les trois semaines.
-Substrat
-Écorce de pin, charbon de bois, billes d'argile, racines de fougères.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Température</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En hiver, de 14 degrés la nuit à 18 degrés le jour ; en été, de 18 à 22 degrés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cattleya</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cattleya</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lumière</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cattleyas aiment beaucoup la lumière, mais pas le soleil direct, celui-ci doit être filtré par un voilage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cattleya</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cattleya</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Arrosages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ou deux arrosages par semaine pendant la période de végétation, puis une fois tous les dix ou quinze jours en période de repos, avec de l'eau non calcaire (eau filtrée ou eau de pluie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cattleya</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cattleya</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Engrais</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En pulvérisation sur les feuilles pendant la période de végétation, toutes les trois semaines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cattleya</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cattleya</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Substrat</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Écorce de pin, charbon de bois, billes d'argile, racines de fougères.
 </t>
         </is>
       </c>
